--- a/assets/wireframes/Book1.xlsx
+++ b/assets/wireframes/Book1.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daryl\github\milestone-project-2.0\assets\wireframes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC724DFF-A788-466D-A2B4-558B330020E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA975AEB-4EB8-4AD4-9858-F537958B13F8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="tKx5fNKY67vs9Fp4nCS94ytCOrEtS7Hj9dSut1B3oJEOT/aTcry3o6nJa+GEqvV0PnGxvkcYt4cADqWCuNmo4w==" workbookSaltValue="wGtzgYy6qZv0FNhdn8gAsA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FE95518C-A403-4452-8AD4-FCCD49B97345}"/>
   </bookViews>
@@ -942,9 +943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,49 +955,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1014,101 +979,8 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,74 +998,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1211,52 +1020,10 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1269,12 +1036,6 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1283,27 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1314,20 +1054,281 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2232,7 +2233,7 @@
   <dimension ref="B1:AI86"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="AN69" sqref="AN69"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,33 +2243,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="R1" s="94" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="80"/>
+      <c r="R1" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="96"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="80"/>
     </row>
     <row r="2" spans="2:35" ht="33" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:35" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2278,502 +2279,502 @@
       <c r="M3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-      <c r="Y3" s="105"/>
-      <c r="Z3" s="105"/>
-      <c r="AA3" s="93"/>
-      <c r="AB3" s="93"/>
-      <c r="AC3" s="97" t="s">
+      <c r="S3" s="82"/>
+      <c r="T3" s="82"/>
+      <c r="U3" s="82"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
+      <c r="X3" s="82"/>
+      <c r="Y3" s="82"/>
+      <c r="Z3" s="82"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="33" t="s">
         <v>46</v>
       </c>
       <c r="AD3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="130" t="s">
+      <c r="AE3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
     </row>
     <row r="4" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="72"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="132"/>
-      <c r="Z4" s="132"/>
-      <c r="AA4" s="132"/>
-      <c r="AB4" s="132"/>
-      <c r="AC4" s="133"/>
-      <c r="AE4" s="129" t="s">
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="144"/>
+      <c r="R4" s="104"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="105"/>
+      <c r="Z4" s="105"/>
+      <c r="AA4" s="105"/>
+      <c r="AB4" s="105"/>
+      <c r="AC4" s="106"/>
+      <c r="AE4" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="129"/>
-      <c r="AH4" s="129"/>
-      <c r="AI4" s="129"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
     </row>
     <row r="5" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="74"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="132"/>
-      <c r="U5" s="132"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="132"/>
-      <c r="Y5" s="132"/>
-      <c r="Z5" s="132"/>
-      <c r="AA5" s="132"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="133"/>
-      <c r="AE5" s="128" t="s">
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144"/>
+      <c r="R5" s="104"/>
+      <c r="S5" s="105"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="105"/>
+      <c r="Z5" s="105"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="106"/>
+      <c r="AE5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="128"/>
-      <c r="AG5" s="128"/>
-      <c r="AH5" s="128"/>
-      <c r="AI5" s="128"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
     </row>
     <row r="6" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="132"/>
-      <c r="T6" s="132"/>
-      <c r="U6" s="132"/>
-      <c r="V6" s="132"/>
-      <c r="W6" s="132"/>
-      <c r="X6" s="132"/>
-      <c r="Y6" s="132"/>
-      <c r="Z6" s="132"/>
-      <c r="AA6" s="132"/>
-      <c r="AB6" s="132"/>
-      <c r="AC6" s="133"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="144"/>
+      <c r="R6" s="104"/>
+      <c r="S6" s="105"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="105"/>
+      <c r="Y6" s="105"/>
+      <c r="Z6" s="105"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="105"/>
+      <c r="AC6" s="106"/>
     </row>
     <row r="7" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="132"/>
-      <c r="T7" s="132"/>
-      <c r="U7" s="132"/>
-      <c r="V7" s="132"/>
-      <c r="W7" s="132"/>
-      <c r="X7" s="132"/>
-      <c r="Y7" s="132"/>
-      <c r="Z7" s="132"/>
-      <c r="AA7" s="132"/>
-      <c r="AB7" s="132"/>
-      <c r="AC7" s="133"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
+      <c r="R7" s="104"/>
+      <c r="S7" s="105"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="106"/>
     </row>
     <row r="8" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="74"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="144"/>
+      <c r="R8" s="104"/>
+      <c r="S8" s="105"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="106"/>
     </row>
     <row r="9" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="74"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="133"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="144"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="106"/>
     </row>
     <row r="10" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74"/>
-      <c r="R10" s="131"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="133"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="144"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="105"/>
+      <c r="AC10" s="106"/>
     </row>
     <row r="11" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="74"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-      <c r="AB11" s="132"/>
-      <c r="AC11" s="133"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="144"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="105"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="74"/>
-      <c r="R12" s="131"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="132"/>
-      <c r="AC12" s="133"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="144"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="105"/>
+      <c r="AB12" s="105"/>
+      <c r="AC12" s="106"/>
     </row>
     <row r="13" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="74"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="133"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="144"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="105"/>
+      <c r="Y13" s="105"/>
+      <c r="Z13" s="105"/>
+      <c r="AA13" s="105"/>
+      <c r="AB13" s="105"/>
+      <c r="AC13" s="106"/>
     </row>
     <row r="14" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="74"/>
-      <c r="R14" s="131"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="133"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="143"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="144"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="105"/>
+      <c r="Y14" s="105"/>
+      <c r="Z14" s="105"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="106"/>
     </row>
     <row r="15" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="74"/>
-      <c r="R15" s="131"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-      <c r="AB15" s="132"/>
-      <c r="AC15" s="133"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="144"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="105"/>
+      <c r="Z15" s="105"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="105"/>
+      <c r="AC15" s="106"/>
     </row>
     <row r="16" spans="2:35" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="74"/>
-      <c r="R16" s="131"/>
-      <c r="S16" s="132"/>
-      <c r="T16" s="132"/>
-      <c r="U16" s="132"/>
-      <c r="V16" s="132"/>
-      <c r="W16" s="132"/>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="132"/>
-      <c r="Z16" s="132"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
-      <c r="AC16" s="133"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="143"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="144"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="105"/>
+      <c r="Z16" s="105"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="105"/>
+      <c r="AC16" s="106"/>
     </row>
     <row r="17" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="74"/>
-      <c r="R17" s="131"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
-      <c r="AC17" s="133"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="144"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="105"/>
+      <c r="Z17" s="105"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="105"/>
+      <c r="AC17" s="106"/>
     </row>
     <row r="18" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="74"/>
-      <c r="R18" s="131"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-      <c r="AB18" s="132"/>
-      <c r="AC18" s="133"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="144"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="105"/>
+      <c r="Z18" s="105"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="105"/>
+      <c r="AC18" s="106"/>
     </row>
     <row r="19" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="74"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-      <c r="AB19" s="132"/>
-      <c r="AC19" s="133"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="144"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="105"/>
+      <c r="AB19" s="105"/>
+      <c r="AC19" s="106"/>
     </row>
     <row r="20" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="74"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-      <c r="AB20" s="132"/>
-      <c r="AC20" s="133"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="144"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="105"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="105"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="105"/>
+      <c r="Y20" s="105"/>
+      <c r="Z20" s="105"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="105"/>
+      <c r="AC20" s="106"/>
     </row>
     <row r="21" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R21" s="134"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="136"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="49"/>
     </row>
     <row r="22" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="R22" s="5"/>
@@ -2846,18 +2847,18 @@
       <c r="AC26" s="4"/>
     </row>
     <row r="27" spans="2:29" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R27" s="137"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="139"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="52"/>
     </row>
     <row r="28" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -2885,1064 +2886,1064 @@
       <c r="AB28" s="3"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14" t="s">
+      <c r="C29" s="93"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14" t="s">
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="14" t="s">
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="R29" s="14" t="s">
+      <c r="L29" s="93"/>
+      <c r="M29" s="94"/>
+      <c r="R29" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="14" t="s">
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="94"/>
+      <c r="X29" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="13"/>
-    </row>
-    <row r="30" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="R30" s="11"/>
-      <c r="T30" s="9"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="11"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="10"/>
-    </row>
-    <row r="31" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="29" t="s">
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="94"/>
+    </row>
+    <row r="30" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="T30" s="8"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="10"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="9"/>
+    </row>
+    <row r="31" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="13">
         <v>0</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="25" t="s">
+      <c r="G31" s="136"/>
+      <c r="H31" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="R31" s="11"/>
-      <c r="T31" s="29" t="s">
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="T31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="U31" s="99">
+      <c r="U31" s="35">
         <v>0</v>
       </c>
-      <c r="V31" s="29" t="s">
+      <c r="V31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W31" s="100"/>
-      <c r="Y31" s="101" t="s">
+      <c r="W31" s="36"/>
+      <c r="Y31" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z31" s="21" t="s">
+      <c r="Z31" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="AA31" s="21"/>
-      <c r="AC31" s="10"/>
-    </row>
-    <row r="32" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="30" t="s">
+      <c r="AA31" s="91"/>
+      <c r="AC31" s="9"/>
+    </row>
+    <row r="32" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="T32" s="9"/>
-      <c r="W32" s="10"/>
-      <c r="Y32" s="101" t="s">
+      <c r="G32" s="136"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
+      <c r="R32" s="10"/>
+      <c r="T32" s="8"/>
+      <c r="W32" s="9"/>
+      <c r="Y32" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z32" s="21" t="s">
+      <c r="Z32" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="AA32" s="21"/>
-      <c r="AC32" s="10"/>
-    </row>
-    <row r="33" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="75" t="s">
+      <c r="AA32" s="91"/>
+      <c r="AC32" s="9"/>
+    </row>
+    <row r="33" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="30" t="s">
+      <c r="C33" s="146"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="26" t="s">
+      <c r="G33" s="136"/>
+      <c r="H33" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="140"/>
-      <c r="R33" s="14" t="s">
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="53"/>
+      <c r="R33" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="13"/>
-      <c r="Y33" s="101" t="s">
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="94"/>
+      <c r="Y33" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z33" s="21" t="s">
+      <c r="Z33" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="AA33" s="21"/>
-      <c r="AC33" s="10"/>
-    </row>
-    <row r="34" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="30" t="s">
+      <c r="AA33" s="91"/>
+      <c r="AC33" s="9"/>
+    </row>
+    <row r="34" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="22"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="R34" s="11"/>
-      <c r="T34" s="9"/>
-      <c r="W34" s="10"/>
-      <c r="Y34" s="101" t="s">
+      <c r="G34" s="136"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+      <c r="R34" s="10"/>
+      <c r="T34" s="8"/>
+      <c r="W34" s="9"/>
+      <c r="Y34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="Z34" s="21" t="s">
+      <c r="Z34" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="AA34" s="21"/>
-      <c r="AC34" s="10"/>
-    </row>
-    <row r="35" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="AA34" s="91"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="99">
+      <c r="C35" s="35">
         <v>0</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="R35" s="11"/>
-      <c r="T35" s="29" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="9"/>
+      <c r="R35" s="10"/>
+      <c r="T35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="U35" s="99">
+      <c r="U35" s="35">
         <v>0</v>
       </c>
-      <c r="V35" s="29" t="s">
+      <c r="V35" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W35" s="10"/>
-      <c r="X35" s="11"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="10"/>
-    </row>
-    <row r="36" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="11"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="R36" s="11"/>
-      <c r="T36" s="9"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="11"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="10"/>
-    </row>
-    <row r="37" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="10"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="AC37" s="10"/>
-    </row>
-    <row r="38" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+      <c r="W35" s="9"/>
+      <c r="X35" s="10"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="9"/>
+    </row>
+    <row r="36" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="T36" s="8"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="10"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="9"/>
+    </row>
+    <row r="37" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="AC37" s="9"/>
+    </row>
+    <row r="38" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="31" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34" t="s">
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="141"/>
-      <c r="R38" s="14" t="s">
+      <c r="K38" s="58"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="140"/>
+      <c r="R38" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="12"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="14" t="s">
+      <c r="S38" s="93"/>
+      <c r="T38" s="93"/>
+      <c r="U38" s="93"/>
+      <c r="V38" s="93"/>
+      <c r="W38" s="94"/>
+      <c r="X38" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="Y38" s="12"/>
-      <c r="Z38" s="12"/>
-      <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="13"/>
-    </row>
-    <row r="39" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="10"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="W39" s="10"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="10"/>
-    </row>
-    <row r="40" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="35" t="s">
+      <c r="Y38" s="93"/>
+      <c r="Z38" s="93"/>
+      <c r="AA38" s="93"/>
+      <c r="AB38" s="93"/>
+      <c r="AC38" s="94"/>
+    </row>
+    <row r="39" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="W39" s="9"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="9"/>
+    </row>
+    <row r="40" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
+      <c r="E40" s="103"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="R40" s="125"/>
-      <c r="S40" s="20" t="s">
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="10"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="10"/>
-    </row>
-    <row r="41" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="25" t="s">
+      <c r="T40" s="83"/>
+      <c r="U40" s="83"/>
+      <c r="V40" s="83"/>
+      <c r="W40" s="9"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="9"/>
+    </row>
+    <row r="41" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
+      <c r="E41" s="103"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="W41" s="10"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="10"/>
-    </row>
-    <row r="42" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="35" t="s">
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="W41" s="9"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="9"/>
+    </row>
+    <row r="42" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="R42" s="126"/>
-      <c r="S42" s="26" t="s">
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="10"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="10"/>
-    </row>
-    <row r="43" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="25" t="s">
+      <c r="T42" s="95"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="95"/>
+      <c r="W42" s="9"/>
+      <c r="Y42" s="16"/>
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="9"/>
+    </row>
+    <row r="43" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="R43" s="126"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="10"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="10"/>
-    </row>
-    <row r="44" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="35" t="s">
+      <c r="K43" s="102"/>
+      <c r="L43" s="102"/>
+      <c r="M43" s="102"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="95"/>
+      <c r="V43" s="95"/>
+      <c r="W43" s="9"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="9"/>
+    </row>
+    <row r="44" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="10"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="10"/>
-    </row>
-    <row r="45" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25" t="s">
+      <c r="K44" s="101"/>
+      <c r="L44" s="101"/>
+      <c r="M44" s="101"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="95"/>
+      <c r="U44" s="95"/>
+      <c r="V44" s="95"/>
+      <c r="W44" s="9"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="9"/>
+    </row>
+    <row r="45" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="103"/>
+      <c r="J45" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="R45" s="126"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="10"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="10"/>
-    </row>
-    <row r="46" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="35" t="s">
+      <c r="K45" s="102"/>
+      <c r="L45" s="102"/>
+      <c r="M45" s="102"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="95"/>
+      <c r="T45" s="95"/>
+      <c r="U45" s="95"/>
+      <c r="V45" s="95"/>
+      <c r="W45" s="9"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="98"/>
-      <c r="W46" s="98"/>
-      <c r="X46" s="98"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="10"/>
-    </row>
-    <row r="47" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="25" t="s">
+      <c r="K46" s="101"/>
+      <c r="L46" s="101"/>
+      <c r="M46" s="101"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="34"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="9"/>
+    </row>
+    <row r="47" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="R47" s="34" t="s">
+      <c r="K47" s="102"/>
+      <c r="L47" s="102"/>
+      <c r="M47" s="102"/>
+      <c r="R47" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="S47" s="76"/>
-      <c r="T47" s="76"/>
-      <c r="U47" s="122" t="s">
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="V47" s="122"/>
-      <c r="W47" s="122"/>
-      <c r="X47" s="122"/>
-      <c r="Y47" s="123"/>
-      <c r="Z47" s="34" t="s">
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="76"/>
-    </row>
-    <row r="48" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="35" t="s">
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
+    </row>
+    <row r="48" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="124"/>
-    </row>
-    <row r="49" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="25" t="s">
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="44"/>
+    </row>
+    <row r="49" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="35" t="s">
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="R49" s="103"/>
+      <c r="S49" s="103"/>
+      <c r="T49" s="103"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="103"/>
+      <c r="W49" s="103"/>
+      <c r="X49" s="103"/>
+      <c r="Y49" s="103"/>
+      <c r="Z49" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-    </row>
-    <row r="50" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="35" t="s">
+      <c r="AA49" s="101"/>
+      <c r="AB49" s="101"/>
+      <c r="AC49" s="101"/>
+    </row>
+    <row r="50" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="25" t="s">
+      <c r="K50" s="101"/>
+      <c r="L50" s="101"/>
+      <c r="M50" s="101"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="25"/>
-    </row>
-    <row r="51" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25" t="s">
+      <c r="AA50" s="102"/>
+      <c r="AB50" s="102"/>
+      <c r="AC50" s="102"/>
+    </row>
+    <row r="51" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="35" t="s">
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="103"/>
+      <c r="T51" s="103"/>
+      <c r="U51" s="103"/>
+      <c r="V51" s="103"/>
+      <c r="W51" s="103"/>
+      <c r="X51" s="103"/>
+      <c r="Y51" s="103"/>
+      <c r="Z51" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-    </row>
-    <row r="52" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="35" t="s">
+      <c r="AA51" s="101"/>
+      <c r="AB51" s="101"/>
+      <c r="AC51" s="101"/>
+    </row>
+    <row r="52" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="25" t="s">
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="103"/>
+      <c r="T52" s="103"/>
+      <c r="U52" s="103"/>
+      <c r="V52" s="103"/>
+      <c r="W52" s="103"/>
+      <c r="X52" s="103"/>
+      <c r="Y52" s="103"/>
+      <c r="Z52" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="25"/>
-    </row>
-    <row r="53" spans="2:29" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="16"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="35" t="s">
+      <c r="AA52" s="102"/>
+      <c r="AB52" s="102"/>
+      <c r="AC52" s="102"/>
+    </row>
+    <row r="53" spans="2:29" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="12"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="103"/>
+      <c r="X53" s="103"/>
+      <c r="Y53" s="103"/>
+      <c r="Z53" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-    </row>
-    <row r="54" spans="2:29" s="60" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="77" t="s">
+      <c r="AA53" s="101"/>
+      <c r="AB53" s="101"/>
+      <c r="AC53" s="101"/>
+    </row>
+    <row r="54" spans="2:29" s="19" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="61" t="s">
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="125" t="s">
         <v>28</v>
       </c>
-      <c r="G54" s="61"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="62"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="24"/>
-      <c r="Y54" s="24"/>
-      <c r="Z54" s="25" t="s">
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="126"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="103"/>
+      <c r="X54" s="103"/>
+      <c r="Y54" s="103"/>
+      <c r="Z54" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA54" s="25"/>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="25"/>
+      <c r="AA54" s="102"/>
+      <c r="AB54" s="102"/>
+      <c r="AC54" s="102"/>
     </row>
     <row r="55" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="142"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="143"/>
-      <c r="L55" s="143"/>
-      <c r="M55" s="113"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
-      <c r="U55" s="24"/>
-      <c r="V55" s="24"/>
-      <c r="W55" s="24"/>
-      <c r="X55" s="24"/>
-      <c r="Y55" s="24"/>
-      <c r="Z55" s="35" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="39"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="103"/>
+      <c r="T55" s="103"/>
+      <c r="U55" s="103"/>
+      <c r="V55" s="103"/>
+      <c r="W55" s="103"/>
+      <c r="X55" s="103"/>
+      <c r="Y55" s="103"/>
+      <c r="Z55" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
+      <c r="AA55" s="101"/>
+      <c r="AB55" s="101"/>
+      <c r="AC55" s="101"/>
     </row>
     <row r="56" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="79"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="44"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="44"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="44"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
-      <c r="U56" s="24"/>
-      <c r="V56" s="24"/>
-      <c r="W56" s="24"/>
-      <c r="X56" s="24"/>
-      <c r="Y56" s="24"/>
-      <c r="Z56" s="25" t="s">
+      <c r="B56" s="134"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="112"/>
+      <c r="R56" s="103"/>
+      <c r="S56" s="103"/>
+      <c r="T56" s="103"/>
+      <c r="U56" s="103"/>
+      <c r="V56" s="103"/>
+      <c r="W56" s="103"/>
+      <c r="X56" s="103"/>
+      <c r="Y56" s="103"/>
+      <c r="Z56" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="25"/>
-      <c r="AC56" s="25"/>
+      <c r="AA56" s="102"/>
+      <c r="AB56" s="102"/>
+      <c r="AC56" s="102"/>
     </row>
     <row r="57" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="45"/>
-      <c r="K57" s="46"/>
-      <c r="L57" s="45"/>
-      <c r="M57" s="46"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="35" t="s">
+      <c r="B57" s="135"/>
+      <c r="C57" s="114"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="114"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="114"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="114"/>
+      <c r="L57" s="113"/>
+      <c r="M57" s="114"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="103"/>
+      <c r="T57" s="103"/>
+      <c r="U57" s="103"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
+      <c r="X57" s="103"/>
+      <c r="Y57" s="103"/>
+      <c r="Z57" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
+      <c r="AA57" s="101"/>
+      <c r="AB57" s="101"/>
+      <c r="AC57" s="101"/>
     </row>
     <row r="58" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="46"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="46"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="46"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
-      <c r="U58" s="24"/>
-      <c r="V58" s="24"/>
-      <c r="W58" s="24"/>
-      <c r="X58" s="24"/>
-      <c r="Y58" s="24"/>
-      <c r="Z58" s="25" t="s">
+      <c r="B58" s="135"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="114"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="114"/>
+      <c r="R58" s="103"/>
+      <c r="S58" s="103"/>
+      <c r="T58" s="103"/>
+      <c r="U58" s="103"/>
+      <c r="V58" s="103"/>
+      <c r="W58" s="103"/>
+      <c r="X58" s="103"/>
+      <c r="Y58" s="103"/>
+      <c r="Z58" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA58" s="25"/>
-      <c r="AB58" s="25"/>
-      <c r="AC58" s="25"/>
+      <c r="AA58" s="102"/>
+      <c r="AB58" s="102"/>
+      <c r="AC58" s="102"/>
     </row>
     <row r="59" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="42"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="46"/>
-      <c r="J59" s="45"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="48"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
-      <c r="U59" s="24"/>
-      <c r="V59" s="24"/>
-      <c r="W59" s="24"/>
-      <c r="X59" s="24"/>
-      <c r="Y59" s="24"/>
-      <c r="Z59" s="35" t="s">
+      <c r="B59" s="135"/>
+      <c r="C59" s="114"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="114"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="114"/>
+      <c r="L59" s="115"/>
+      <c r="M59" s="116"/>
+      <c r="R59" s="103"/>
+      <c r="S59" s="103"/>
+      <c r="T59" s="103"/>
+      <c r="U59" s="103"/>
+      <c r="V59" s="103"/>
+      <c r="W59" s="103"/>
+      <c r="X59" s="103"/>
+      <c r="Y59" s="103"/>
+      <c r="Z59" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
+      <c r="AA59" s="101"/>
+      <c r="AB59" s="101"/>
+      <c r="AC59" s="101"/>
     </row>
     <row r="60" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="51" t="s">
+      <c r="C60" s="129"/>
+      <c r="D60" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="49" t="s">
+      <c r="E60" s="120"/>
+      <c r="F60" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="G60" s="50"/>
-      <c r="H60" s="51" t="s">
+      <c r="G60" s="129"/>
+      <c r="H60" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="I60" s="52"/>
-      <c r="J60" s="49" t="s">
+      <c r="I60" s="120"/>
+      <c r="J60" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="K60" s="50"/>
-      <c r="L60" s="145" t="s">
+      <c r="K60" s="129"/>
+      <c r="L60" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="M60" s="146"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="24"/>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="25" t="s">
+      <c r="M60" s="118"/>
+      <c r="R60" s="103"/>
+      <c r="S60" s="103"/>
+      <c r="T60" s="103"/>
+      <c r="U60" s="103"/>
+      <c r="V60" s="103"/>
+      <c r="W60" s="103"/>
+      <c r="X60" s="103"/>
+      <c r="Y60" s="103"/>
+      <c r="Z60" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
+      <c r="AA60" s="102"/>
+      <c r="AB60" s="102"/>
+      <c r="AC60" s="102"/>
     </row>
     <row r="61" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="80"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="52"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
-      <c r="U61" s="24"/>
-      <c r="V61" s="24"/>
-      <c r="W61" s="24"/>
-      <c r="X61" s="24"/>
-      <c r="Y61" s="24"/>
-      <c r="Z61" s="35" t="s">
+      <c r="B61" s="132"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="119"/>
+      <c r="E61" s="120"/>
+      <c r="F61" s="128"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="119"/>
+      <c r="I61" s="120"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="119"/>
+      <c r="M61" s="120"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="103"/>
+      <c r="T61" s="103"/>
+      <c r="U61" s="103"/>
+      <c r="V61" s="103"/>
+      <c r="W61" s="103"/>
+      <c r="X61" s="103"/>
+      <c r="Y61" s="103"/>
+      <c r="Z61" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
+      <c r="AA61" s="101"/>
+      <c r="AB61" s="101"/>
+      <c r="AC61" s="101"/>
     </row>
     <row r="62" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="80"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="51"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="49"/>
-      <c r="K62" s="50"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="52"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="15"/>
-      <c r="T62" s="15"/>
-      <c r="U62" s="15"/>
-      <c r="V62" s="15"/>
-      <c r="W62" s="15"/>
-      <c r="X62" s="15"/>
-      <c r="Y62" s="15"/>
-      <c r="Z62" s="15"/>
-      <c r="AA62" s="15"/>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="112"/>
+      <c r="B62" s="132"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="119"/>
+      <c r="E62" s="120"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="119"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="119"/>
+      <c r="M62" s="120"/>
+      <c r="R62" s="14"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+      <c r="V62" s="11"/>
+      <c r="W62" s="11"/>
+      <c r="X62" s="11"/>
+      <c r="Y62" s="11"/>
+      <c r="Z62" s="11"/>
+      <c r="AA62" s="11"/>
+      <c r="AB62" s="11"/>
+      <c r="AC62" s="38"/>
     </row>
     <row r="63" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="80"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="50"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="52"/>
-      <c r="R63" s="106" t="s">
+      <c r="B63" s="132"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="119"/>
+      <c r="E63" s="120"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="119"/>
+      <c r="I63" s="120"/>
+      <c r="J63" s="128"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="119"/>
+      <c r="M63" s="120"/>
+      <c r="R63" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="S63" s="57"/>
-      <c r="T63" s="57"/>
-      <c r="U63" s="57"/>
-      <c r="V63" s="57"/>
-      <c r="W63" s="57"/>
-      <c r="X63" s="57"/>
-      <c r="Y63" s="57"/>
-      <c r="Z63" s="57"/>
-      <c r="AA63" s="57"/>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="58"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="88"/>
+      <c r="U63" s="88"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="88"/>
+      <c r="X63" s="88"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="88"/>
+      <c r="AA63" s="88"/>
+      <c r="AB63" s="88"/>
+      <c r="AC63" s="89"/>
     </row>
     <row r="64" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="81"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="56"/>
-      <c r="R64" s="111" t="s">
+      <c r="B64" s="133"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="121"/>
+      <c r="M64" s="122"/>
+      <c r="R64" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="S64" s="107"/>
-      <c r="T64" s="107"/>
-      <c r="U64" s="107"/>
-      <c r="V64" s="107"/>
-      <c r="W64" s="107"/>
-      <c r="X64" s="107"/>
-      <c r="Y64" s="107"/>
-      <c r="Z64" s="107"/>
-      <c r="AA64" s="107"/>
-      <c r="AB64" s="107"/>
-      <c r="AC64" s="108"/>
+      <c r="S64" s="85"/>
+      <c r="T64" s="85"/>
+      <c r="U64" s="85"/>
+      <c r="V64" s="85"/>
+      <c r="W64" s="85"/>
+      <c r="X64" s="85"/>
+      <c r="Y64" s="85"/>
+      <c r="Z64" s="85"/>
+      <c r="AA64" s="85"/>
+      <c r="AB64" s="85"/>
+      <c r="AC64" s="86"/>
     </row>
     <row r="65" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="5"/>
@@ -3956,14 +3957,14 @@
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="66"/>
+      <c r="M65" s="23"/>
       <c r="R65" s="5"/>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="78"/>
-      <c r="X65" s="78"/>
+      <c r="W65" s="28"/>
+      <c r="X65" s="28"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="3"/>
@@ -3971,268 +3972,268 @@
       <c r="AC65" s="4"/>
     </row>
     <row r="66" spans="2:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="82"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="84" t="s">
+      <c r="B66" s="29"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="H66" s="84"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="67"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="24"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="109"/>
-      <c r="U66" s="109"/>
-      <c r="V66" s="37"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="109"/>
-      <c r="AA66" s="109"/>
-      <c r="AB66" s="37"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="68"/>
+      <c r="U66" s="68"/>
+      <c r="V66" s="69"/>
+      <c r="Y66" s="67"/>
+      <c r="Z66" s="68"/>
+      <c r="AA66" s="68"/>
+      <c r="AB66" s="69"/>
       <c r="AC66" s="4"/>
     </row>
     <row r="67" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="82"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="67"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="24"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="39"/>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="39"/>
+      <c r="S67" s="70"/>
+      <c r="T67" s="71"/>
+      <c r="U67" s="71"/>
+      <c r="V67" s="72"/>
+      <c r="Y67" s="70"/>
+      <c r="Z67" s="71"/>
+      <c r="AA67" s="71"/>
+      <c r="AB67" s="72"/>
       <c r="AC67" s="4"/>
     </row>
     <row r="68" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="82"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="85" t="s">
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F68" s="85"/>
-      <c r="G68" s="85"/>
-      <c r="H68" s="86" t="s">
+      <c r="F68" s="110"/>
+      <c r="G68" s="110"/>
+      <c r="H68" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="I68" s="86"/>
-      <c r="J68" s="86"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="67"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="24"/>
       <c r="R68" s="5"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="39"/>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="39"/>
+      <c r="S68" s="70"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="71"/>
+      <c r="V68" s="72"/>
+      <c r="Y68" s="70"/>
+      <c r="Z68" s="71"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="72"/>
       <c r="AC68" s="4"/>
     </row>
     <row r="69" spans="2:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="82"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="87" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="88" t="s">
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="67"/>
+      <c r="I69" s="96"/>
+      <c r="J69" s="96"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="24"/>
       <c r="R69" s="5"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="110"/>
-      <c r="U69" s="110"/>
-      <c r="V69" s="41"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="110"/>
-      <c r="AA69" s="110"/>
-      <c r="AB69" s="41"/>
+      <c r="S69" s="73"/>
+      <c r="T69" s="74"/>
+      <c r="U69" s="74"/>
+      <c r="V69" s="75"/>
+      <c r="Y69" s="73"/>
+      <c r="Z69" s="74"/>
+      <c r="AA69" s="74"/>
+      <c r="AB69" s="75"/>
       <c r="AC69" s="4"/>
     </row>
     <row r="70" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="82"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="86" t="s">
+      <c r="B70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="108"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I70" s="86"/>
-      <c r="J70" s="86"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="67"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="24"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="102" t="s">
+      <c r="S70" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="T70" s="103"/>
-      <c r="U70" s="103"/>
-      <c r="V70" s="103"/>
-      <c r="Y70" s="147" t="s">
+      <c r="T70" s="77"/>
+      <c r="U70" s="77"/>
+      <c r="V70" s="77"/>
+      <c r="Y70" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="Z70" s="147"/>
-      <c r="AA70" s="147"/>
-      <c r="AB70" s="147"/>
+      <c r="Z70" s="90"/>
+      <c r="AA70" s="90"/>
+      <c r="AB70" s="90"/>
       <c r="AC70" s="4"/>
     </row>
     <row r="71" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="82"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="87" t="s">
+      <c r="B71" s="29"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="89">
+      <c r="F71" s="107"/>
+      <c r="G71" s="107"/>
+      <c r="H71" s="96">
         <v>123123123</v>
       </c>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="67"/>
+      <c r="I71" s="96"/>
+      <c r="J71" s="96"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="24"/>
       <c r="R71" s="5"/>
-      <c r="S71" s="102"/>
-      <c r="T71" s="103"/>
-      <c r="U71" s="103"/>
-      <c r="V71" s="103"/>
-      <c r="Y71" s="147"/>
-      <c r="Z71" s="147"/>
-      <c r="AA71" s="147"/>
-      <c r="AB71" s="147"/>
+      <c r="S71" s="76"/>
+      <c r="T71" s="77"/>
+      <c r="U71" s="77"/>
+      <c r="V71" s="77"/>
+      <c r="Y71" s="90"/>
+      <c r="Z71" s="90"/>
+      <c r="AA71" s="90"/>
+      <c r="AB71" s="90"/>
       <c r="AC71" s="4"/>
     </row>
     <row r="72" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="82"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
-      <c r="H72" s="86" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="107"/>
+      <c r="F72" s="107"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="86"/>
-      <c r="J72" s="86"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="67"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="24"/>
       <c r="R72" s="5"/>
-      <c r="S72" s="102"/>
-      <c r="T72" s="103"/>
-      <c r="U72" s="103"/>
-      <c r="V72" s="103"/>
-      <c r="Y72" s="147"/>
-      <c r="Z72" s="147"/>
-      <c r="AA72" s="147"/>
-      <c r="AB72" s="147"/>
+      <c r="S72" s="76"/>
+      <c r="T72" s="77"/>
+      <c r="U72" s="77"/>
+      <c r="V72" s="77"/>
+      <c r="Y72" s="90"/>
+      <c r="Z72" s="90"/>
+      <c r="AA72" s="90"/>
+      <c r="AB72" s="90"/>
       <c r="AC72" s="4"/>
     </row>
     <row r="73" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="82"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="92" t="s">
+      <c r="B73" s="29"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="89" t="s">
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="67"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="96"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="24"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="103"/>
-      <c r="U73" s="103"/>
-      <c r="V73" s="103"/>
-      <c r="Y73" s="147"/>
-      <c r="Z73" s="147"/>
-      <c r="AA73" s="147"/>
-      <c r="AB73" s="147"/>
+      <c r="S73" s="76"/>
+      <c r="T73" s="77"/>
+      <c r="U73" s="77"/>
+      <c r="V73" s="77"/>
+      <c r="Y73" s="90"/>
+      <c r="Z73" s="90"/>
+      <c r="AA73" s="90"/>
+      <c r="AB73" s="90"/>
       <c r="AC73" s="4"/>
     </row>
     <row r="74" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="83"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="67"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="24"/>
       <c r="R74" s="5"/>
-      <c r="S74" s="102"/>
-      <c r="T74" s="103"/>
-      <c r="U74" s="103"/>
-      <c r="V74" s="103"/>
-      <c r="Y74" s="147"/>
-      <c r="Z74" s="147"/>
-      <c r="AA74" s="147"/>
-      <c r="AB74" s="147"/>
+      <c r="S74" s="76"/>
+      <c r="T74" s="77"/>
+      <c r="U74" s="77"/>
+      <c r="V74" s="77"/>
+      <c r="Y74" s="90"/>
+      <c r="Z74" s="90"/>
+      <c r="AA74" s="90"/>
+      <c r="AB74" s="90"/>
       <c r="AC74" s="4"/>
     </row>
     <row r="75" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="82"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="63" t="s">
+      <c r="B75" s="29"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G75" s="64" t="s">
+      <c r="G75" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H75" s="64" t="s">
+      <c r="H75" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="65" t="s">
+      <c r="I75" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J75" s="83"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="67"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="24"/>
       <c r="R75" s="5"/>
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
@@ -4247,110 +4248,110 @@
       <c r="AC75" s="4"/>
     </row>
     <row r="76" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B76" s="90"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="69"/>
-      <c r="R76" s="114" t="s">
+      <c r="B76" s="31"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+      <c r="M76" s="26"/>
+      <c r="R76" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="S76" s="115"/>
-      <c r="T76" s="115"/>
-      <c r="U76" s="115"/>
-      <c r="V76" s="115"/>
-      <c r="W76" s="115"/>
-      <c r="X76" s="115"/>
-      <c r="Y76" s="115"/>
-      <c r="Z76" s="115"/>
-      <c r="AA76" s="115"/>
-      <c r="AB76" s="115"/>
-      <c r="AC76" s="116"/>
+      <c r="S76" s="99"/>
+      <c r="T76" s="99"/>
+      <c r="U76" s="99"/>
+      <c r="V76" s="99"/>
+      <c r="W76" s="99"/>
+      <c r="X76" s="99"/>
+      <c r="Y76" s="99"/>
+      <c r="Z76" s="99"/>
+      <c r="AA76" s="99"/>
+      <c r="AB76" s="99"/>
+      <c r="AC76" s="100"/>
     </row>
     <row r="77" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R77" s="82"/>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
-      <c r="V77" s="83"/>
-      <c r="W77" s="83"/>
-      <c r="X77" s="83"/>
-      <c r="Y77" s="83"/>
-      <c r="Z77" s="83"/>
-      <c r="AA77" s="83"/>
-      <c r="AB77" s="83"/>
-      <c r="AC77" s="67"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="24"/>
     </row>
     <row r="78" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R78" s="118"/>
-      <c r="S78" s="86" t="s">
+      <c r="R78" s="40"/>
+      <c r="S78" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="T78" s="86"/>
-      <c r="U78" s="86"/>
-      <c r="V78" s="86"/>
-      <c r="W78" s="86"/>
-      <c r="X78" s="86" t="s">
+      <c r="T78" s="66"/>
+      <c r="U78" s="66"/>
+      <c r="V78" s="66"/>
+      <c r="W78" s="66"/>
+      <c r="X78" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="Y78" s="86"/>
-      <c r="Z78" s="86"/>
-      <c r="AA78" s="83"/>
-      <c r="AB78" s="83"/>
-      <c r="AC78" s="67"/>
+      <c r="Y78" s="66"/>
+      <c r="Z78" s="66"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="24"/>
     </row>
     <row r="79" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R79" s="82"/>
-      <c r="S79" s="117" t="s">
+      <c r="R79" s="29"/>
+      <c r="S79" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="T79" s="117"/>
-      <c r="U79" s="117"/>
-      <c r="V79" s="117"/>
-      <c r="W79" s="117"/>
-      <c r="X79" s="88" t="s">
+      <c r="T79" s="65"/>
+      <c r="U79" s="65"/>
+      <c r="V79" s="65"/>
+      <c r="W79" s="65"/>
+      <c r="X79" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="Y79" s="88"/>
-      <c r="Z79" s="88"/>
-      <c r="AA79" s="83"/>
-      <c r="AB79" s="83"/>
-      <c r="AC79" s="67"/>
+      <c r="Y79" s="97"/>
+      <c r="Z79" s="97"/>
+      <c r="AA79" s="30"/>
+      <c r="AB79" s="30"/>
+      <c r="AC79" s="24"/>
     </row>
     <row r="80" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="R80" s="82"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="117"/>
-      <c r="U80" s="117"/>
-      <c r="V80" s="117"/>
-      <c r="W80" s="117"/>
-      <c r="X80" s="86" t="s">
+      <c r="B80" s="71"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="71"/>
+      <c r="J80" s="71"/>
+      <c r="K80" s="71"/>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="65"/>
+      <c r="T80" s="65"/>
+      <c r="U80" s="65"/>
+      <c r="V80" s="65"/>
+      <c r="W80" s="65"/>
+      <c r="X80" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Y80" s="86"/>
-      <c r="Z80" s="86"/>
-      <c r="AA80" s="83"/>
-      <c r="AB80" s="83"/>
-      <c r="AC80" s="67"/>
+      <c r="Y80" s="66"/>
+      <c r="Z80" s="66"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="24"/>
     </row>
     <row r="81" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
@@ -4365,22 +4366,22 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="R81" s="82"/>
-      <c r="S81" s="117" t="s">
+      <c r="R81" s="29"/>
+      <c r="S81" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="T81" s="117"/>
-      <c r="U81" s="117"/>
-      <c r="V81" s="117"/>
-      <c r="W81" s="117"/>
-      <c r="X81" s="89">
+      <c r="T81" s="65"/>
+      <c r="U81" s="65"/>
+      <c r="V81" s="65"/>
+      <c r="W81" s="65"/>
+      <c r="X81" s="96">
         <v>123123123</v>
       </c>
-      <c r="Y81" s="89"/>
-      <c r="Z81" s="89"/>
-      <c r="AA81" s="83"/>
-      <c r="AB81" s="83"/>
-      <c r="AC81" s="67"/>
+      <c r="Y81" s="96"/>
+      <c r="Z81" s="96"/>
+      <c r="AA81" s="30"/>
+      <c r="AB81" s="30"/>
+      <c r="AC81" s="24"/>
     </row>
     <row r="82" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
@@ -4395,116 +4396,147 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="R82" s="82"/>
-      <c r="S82" s="117"/>
-      <c r="T82" s="117"/>
-      <c r="U82" s="117"/>
-      <c r="V82" s="117"/>
-      <c r="W82" s="117"/>
-      <c r="X82" s="86" t="s">
+      <c r="R82" s="29"/>
+      <c r="S82" s="65"/>
+      <c r="T82" s="65"/>
+      <c r="U82" s="65"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="65"/>
+      <c r="X82" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="Y82" s="86"/>
-      <c r="Z82" s="86"/>
-      <c r="AA82" s="83"/>
-      <c r="AB82" s="83"/>
-      <c r="AC82" s="67"/>
+      <c r="Y82" s="66"/>
+      <c r="Z82" s="66"/>
+      <c r="AA82" s="30"/>
+      <c r="AB82" s="30"/>
+      <c r="AC82" s="24"/>
     </row>
     <row r="83" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R83" s="82"/>
-      <c r="S83" s="127" t="s">
+      <c r="R83" s="29"/>
+      <c r="S83" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="T83" s="127"/>
-      <c r="U83" s="127"/>
-      <c r="V83" s="127"/>
-      <c r="W83" s="127"/>
-      <c r="X83" s="89" t="s">
+      <c r="T83" s="64"/>
+      <c r="U83" s="64"/>
+      <c r="V83" s="64"/>
+      <c r="W83" s="64"/>
+      <c r="X83" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="Y83" s="89"/>
-      <c r="Z83" s="89"/>
-      <c r="AA83" s="83"/>
-      <c r="AB83" s="83"/>
-      <c r="AC83" s="67"/>
+      <c r="Y83" s="96"/>
+      <c r="Z83" s="96"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="24"/>
     </row>
     <row r="84" spans="2:29" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R84" s="82"/>
-      <c r="S84" s="83"/>
-      <c r="T84" s="83"/>
-      <c r="U84" s="83"/>
-      <c r="V84" s="83"/>
-      <c r="W84" s="83"/>
-      <c r="X84" s="83"/>
-      <c r="Y84" s="83"/>
-      <c r="Z84" s="83"/>
-      <c r="AA84" s="83"/>
-      <c r="AB84" s="83"/>
-      <c r="AC84" s="67"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="24"/>
     </row>
     <row r="85" spans="2:29" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R85" s="82"/>
-      <c r="S85" s="83"/>
-      <c r="T85" s="83"/>
-      <c r="U85" s="83"/>
-      <c r="V85" s="119" t="s">
+      <c r="R85" s="29"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="W85" s="120" t="s">
+      <c r="W85" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="X85" s="120" t="s">
+      <c r="X85" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="Y85" s="121" t="s">
+      <c r="Y85" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="Z85" s="83"/>
-      <c r="AA85" s="83"/>
-      <c r="AB85" s="83"/>
-      <c r="AC85" s="67"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+      <c r="AB85" s="30"/>
+      <c r="AC85" s="24"/>
     </row>
     <row r="86" spans="2:29" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R86" s="90"/>
-      <c r="S86" s="68"/>
-      <c r="T86" s="68"/>
-      <c r="U86" s="68"/>
-      <c r="V86" s="68"/>
-      <c r="W86" s="68"/>
-      <c r="X86" s="68"/>
-      <c r="Y86" s="68"/>
-      <c r="Z86" s="68"/>
-      <c r="AA86" s="68"/>
-      <c r="AB86" s="68"/>
-      <c r="AC86" s="69"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+      <c r="W86" s="25"/>
+      <c r="X86" s="25"/>
+      <c r="Y86" s="25"/>
+      <c r="Z86" s="25"/>
+      <c r="AA86" s="25"/>
+      <c r="AB86" s="25"/>
+      <c r="AC86" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="R47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="AE3:AI3"/>
-    <mergeCell ref="AE4:AI4"/>
-    <mergeCell ref="AE5:AI5"/>
-    <mergeCell ref="S83:W83"/>
-    <mergeCell ref="S79:W80"/>
-    <mergeCell ref="S81:W82"/>
-    <mergeCell ref="S78:W78"/>
-    <mergeCell ref="S66:V69"/>
-    <mergeCell ref="S70:V74"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="S40:V40"/>
-    <mergeCell ref="R64:AC64"/>
-    <mergeCell ref="R63:AC63"/>
-    <mergeCell ref="Y66:AB69"/>
-    <mergeCell ref="Y70:AB74"/>
-    <mergeCell ref="Z34:AA34"/>
-    <mergeCell ref="R38:W38"/>
-    <mergeCell ref="S42:V45"/>
-    <mergeCell ref="X38:AC38"/>
-    <mergeCell ref="X81:Z81"/>
-    <mergeCell ref="X82:Z82"/>
-    <mergeCell ref="X83:Z83"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H33:J36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="B4:M20"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L56:M59"/>
+    <mergeCell ref="L60:M64"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="F56:G59"/>
+    <mergeCell ref="F60:G64"/>
+    <mergeCell ref="H56:I59"/>
+    <mergeCell ref="H60:I64"/>
+    <mergeCell ref="J56:K59"/>
+    <mergeCell ref="J60:K64"/>
+    <mergeCell ref="B60:C64"/>
+    <mergeCell ref="B56:C59"/>
+    <mergeCell ref="D56:E59"/>
+    <mergeCell ref="D60:E64"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="E69:G70"/>
+    <mergeCell ref="E71:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="B40:I52"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
     <mergeCell ref="B80:M80"/>
     <mergeCell ref="R29:W29"/>
     <mergeCell ref="X78:Z78"/>
@@ -4528,66 +4560,35 @@
     <mergeCell ref="Z54:AC54"/>
     <mergeCell ref="R33:W33"/>
     <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="X29:AC29"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="R3:Z3"/>
+    <mergeCell ref="S40:V40"/>
+    <mergeCell ref="R64:AC64"/>
+    <mergeCell ref="R63:AC63"/>
+    <mergeCell ref="Y66:AB69"/>
+    <mergeCell ref="Y70:AB74"/>
+    <mergeCell ref="Z34:AA34"/>
+    <mergeCell ref="R38:W38"/>
+    <mergeCell ref="S42:V45"/>
+    <mergeCell ref="X38:AC38"/>
     <mergeCell ref="R4:AC20"/>
-    <mergeCell ref="X29:AC29"/>
     <mergeCell ref="Z32:AA32"/>
     <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="E69:G70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="L56:M59"/>
-    <mergeCell ref="L60:M64"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="F56:G59"/>
-    <mergeCell ref="F60:G64"/>
-    <mergeCell ref="H56:I59"/>
-    <mergeCell ref="H60:I64"/>
-    <mergeCell ref="J56:K59"/>
-    <mergeCell ref="J60:K64"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="B60:C64"/>
-    <mergeCell ref="B56:C59"/>
-    <mergeCell ref="D56:E59"/>
-    <mergeCell ref="D60:E64"/>
-    <mergeCell ref="B40:I52"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H33:J36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="B4:M20"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="R47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="AE3:AI3"/>
+    <mergeCell ref="AE4:AI4"/>
+    <mergeCell ref="AE5:AI5"/>
+    <mergeCell ref="S83:W83"/>
+    <mergeCell ref="S79:W80"/>
+    <mergeCell ref="S81:W82"/>
+    <mergeCell ref="S78:W78"/>
+    <mergeCell ref="S66:V69"/>
+    <mergeCell ref="S70:V74"/>
+    <mergeCell ref="X81:Z81"/>
+    <mergeCell ref="X82:Z82"/>
+    <mergeCell ref="X83:Z83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
